--- a/Output/Habitat_Quality_Scores.xlsx
+++ b/Output/Habitat_Quality_Scores.xlsx
@@ -2843,8 +2843,8 @@
       <c r="R2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S2" t="n">
-        <v>4.0</v>
+      <c r="S2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T2" t="e">
         <v>#N/A</v>
@@ -2986,7 +2986,7 @@
         <v>#N/A</v>
       </c>
       <c r="S4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T4" t="e">
         <v>#N/A</v>
@@ -4051,7 +4051,7 @@
         <v>#N/A</v>
       </c>
       <c r="S19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T19" t="e">
         <v>#N/A</v>
@@ -4172,7 +4172,7 @@
         <v>1.0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M21" t="n">
         <v>1.0</v>
@@ -4193,13 +4193,13 @@
         <v>1.0</v>
       </c>
       <c r="S21" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="V21" t="n">
         <v>5.0</v>
@@ -4243,7 +4243,7 @@
         <v>1.0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M22" t="n">
         <v>3.0</v>
@@ -4267,10 +4267,10 @@
         <v>5.0</v>
       </c>
       <c r="T22" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="V22" t="n">
         <v>5.0</v>
@@ -6110,7 +6110,7 @@
         <v>#N/A</v>
       </c>
       <c r="S48" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T48" t="e">
         <v>#N/A</v>
@@ -6252,7 +6252,7 @@
         <v>#N/A</v>
       </c>
       <c r="S50" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T50" t="e">
         <v>#N/A</v>
@@ -6465,7 +6465,7 @@
         <v>#N/A</v>
       </c>
       <c r="S53" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T53" t="e">
         <v>#N/A</v>
@@ -6678,7 +6678,7 @@
         <v>#N/A</v>
       </c>
       <c r="S56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T56" t="e">
         <v>#N/A</v>
@@ -7246,7 +7246,7 @@
         <v>#N/A</v>
       </c>
       <c r="S64" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T64" t="e">
         <v>#N/A</v>
@@ -8361,7 +8361,7 @@
         <v>1.0</v>
       </c>
       <c r="L80" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M80" t="n">
         <v>5.0</v>
@@ -8385,10 +8385,10 @@
         <v>1.0</v>
       </c>
       <c r="T80" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="U80" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V80" t="n">
         <v>5.0</v>
@@ -8432,7 +8432,7 @@
         <v>1.0</v>
       </c>
       <c r="L81" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M81" t="n">
         <v>5.0</v>
@@ -8456,10 +8456,10 @@
         <v>1.0</v>
       </c>
       <c r="T81" t="n">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
       <c r="U81" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V81" t="n">
         <v>5.0</v>
@@ -8503,7 +8503,7 @@
         <v>1.0</v>
       </c>
       <c r="L82" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M82" t="n">
         <v>3.0</v>
@@ -8527,10 +8527,10 @@
         <v>1.0</v>
       </c>
       <c r="T82" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="U82" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V82" t="n">
         <v>5.0</v>
@@ -9518,7 +9518,7 @@
         <v>#N/A</v>
       </c>
       <c r="S96" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T96" t="e">
         <v>#N/A</v>
@@ -9873,7 +9873,7 @@
         <v>#N/A</v>
       </c>
       <c r="S101" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T101" t="e">
         <v>#N/A</v>
@@ -10228,7 +10228,7 @@
         <v>#N/A</v>
       </c>
       <c r="S106" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T106" t="e">
         <v>#N/A</v>
@@ -10299,7 +10299,7 @@
         <v>#N/A</v>
       </c>
       <c r="S107" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T107" t="e">
         <v>#N/A</v>
@@ -10370,7 +10370,7 @@
         <v>#N/A</v>
       </c>
       <c r="S108" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T108" t="e">
         <v>#N/A</v>
@@ -10441,7 +10441,7 @@
         <v>#N/A</v>
       </c>
       <c r="S109" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T109" t="e">
         <v>#N/A</v>
@@ -10512,7 +10512,7 @@
         <v>#N/A</v>
       </c>
       <c r="S110" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T110" t="e">
         <v>#N/A</v>
@@ -10583,7 +10583,7 @@
         <v>#N/A</v>
       </c>
       <c r="S111" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T111" t="e">
         <v>#N/A</v>
@@ -10725,7 +10725,7 @@
         <v>#N/A</v>
       </c>
       <c r="S113" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T113" t="e">
         <v>#N/A</v>
@@ -10796,7 +10796,7 @@
         <v>1.0</v>
       </c>
       <c r="S114" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T114" t="e">
         <v>#N/A</v>
@@ -10867,7 +10867,7 @@
         <v>#N/A</v>
       </c>
       <c r="S115" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T115" t="e">
         <v>#N/A</v>
@@ -11222,7 +11222,7 @@
         <v>#N/A</v>
       </c>
       <c r="S120" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T120" t="e">
         <v>#N/A</v>
@@ -11293,7 +11293,7 @@
         <v>#N/A</v>
       </c>
       <c r="S121" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T121" t="e">
         <v>#N/A</v>
@@ -11435,7 +11435,7 @@
         <v>#N/A</v>
       </c>
       <c r="S123" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T123" t="e">
         <v>#N/A</v>
@@ -11506,7 +11506,7 @@
         <v>#N/A</v>
       </c>
       <c r="S124" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T124" t="e">
         <v>#N/A</v>
@@ -11719,7 +11719,7 @@
         <v>#N/A</v>
       </c>
       <c r="S127" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T127" t="e">
         <v>#N/A</v>
@@ -11790,7 +11790,7 @@
         <v>#N/A</v>
       </c>
       <c r="S128" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T128" t="e">
         <v>#N/A</v>
@@ -11861,7 +11861,7 @@
         <v>#N/A</v>
       </c>
       <c r="S129" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T129" t="e">
         <v>#N/A</v>
@@ -11932,7 +11932,7 @@
         <v>#N/A</v>
       </c>
       <c r="S130" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T130" t="e">
         <v>#N/A</v>
@@ -12003,7 +12003,7 @@
         <v>#N/A</v>
       </c>
       <c r="S131" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T131" t="e">
         <v>#N/A</v>
@@ -12145,7 +12145,7 @@
         <v>#N/A</v>
       </c>
       <c r="S133" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T133" t="e">
         <v>#N/A</v>
@@ -12358,7 +12358,7 @@
         <v>#N/A</v>
       </c>
       <c r="S136" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T136" t="e">
         <v>#N/A</v>
@@ -12784,7 +12784,7 @@
         <v>#N/A</v>
       </c>
       <c r="S142" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T142" t="e">
         <v>#N/A</v>
@@ -13352,7 +13352,7 @@
         <v>#N/A</v>
       </c>
       <c r="S150" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T150" t="e">
         <v>#N/A</v>
@@ -13473,7 +13473,7 @@
         <v>#N/A</v>
       </c>
       <c r="L152" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M152" t="e">
         <v>#N/A</v>
@@ -15106,7 +15106,7 @@
         <v>#N/A</v>
       </c>
       <c r="L175" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M175" t="e">
         <v>#N/A</v>
@@ -15127,7 +15127,7 @@
         <v>#N/A</v>
       </c>
       <c r="S175" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T175" t="e">
         <v>#N/A</v>
@@ -15198,13 +15198,13 @@
         <v>2.0</v>
       </c>
       <c r="S176" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T176" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="U176" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V176" t="n">
         <v>5.0</v>
@@ -15269,13 +15269,13 @@
         <v>2.0</v>
       </c>
       <c r="S177" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T177" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="U177" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V177" t="n">
         <v>5.0</v>
@@ -15958,7 +15958,7 @@
         <v>3.0</v>
       </c>
       <c r="L187" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="M187" t="n">
         <v>5.0</v>
@@ -15982,10 +15982,10 @@
         <v>3.0</v>
       </c>
       <c r="T187" t="n">
-        <v>37.0</v>
+        <v>39.0</v>
       </c>
       <c r="U187" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V187" t="n">
         <v>3.0</v>
@@ -16263,13 +16263,13 @@
         <v>4.0</v>
       </c>
       <c r="S191" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T191" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="U191" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V191" t="n">
         <v>5.0</v>
@@ -16618,7 +16618,7 @@
         <v>#N/A</v>
       </c>
       <c r="S196" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T196" t="e">
         <v>#N/A</v>
@@ -16689,7 +16689,7 @@
         <v>#N/A</v>
       </c>
       <c r="S197" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T197" t="e">
         <v>#N/A</v>
@@ -17115,7 +17115,7 @@
         <v>#N/A</v>
       </c>
       <c r="S203" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T203" t="e">
         <v>#N/A</v>
@@ -17186,7 +17186,7 @@
         <v>#N/A</v>
       </c>
       <c r="S204" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T204" t="e">
         <v>#N/A</v>
@@ -18321,8 +18321,8 @@
       <c r="R220" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S220" t="n">
-        <v>5.0</v>
+      <c r="S220" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T220" t="e">
         <v>#N/A</v>
@@ -19742,7 +19742,7 @@
         <v>1.0</v>
       </c>
       <c r="S240" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T240" t="e">
         <v>#N/A</v>
@@ -19884,7 +19884,7 @@
         <v>#N/A</v>
       </c>
       <c r="S242" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T242" t="e">
         <v>#N/A</v>
@@ -20239,7 +20239,7 @@
         <v>#N/A</v>
       </c>
       <c r="S247" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T247" t="e">
         <v>#N/A</v>
@@ -20310,7 +20310,7 @@
         <v>#N/A</v>
       </c>
       <c r="S248" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T248" t="e">
         <v>#N/A</v>
@@ -20381,7 +20381,7 @@
         <v>#N/A</v>
       </c>
       <c r="S249" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T249" t="e">
         <v>#N/A</v>
@@ -20452,7 +20452,7 @@
         <v>#N/A</v>
       </c>
       <c r="S250" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T250" t="e">
         <v>#N/A</v>
@@ -20523,7 +20523,7 @@
         <v>#N/A</v>
       </c>
       <c r="S251" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T251" t="e">
         <v>#N/A</v>
@@ -20736,7 +20736,7 @@
         <v>#N/A</v>
       </c>
       <c r="S254" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T254" t="e">
         <v>#N/A</v>
@@ -20878,7 +20878,7 @@
         <v>#N/A</v>
       </c>
       <c r="S256" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T256" t="e">
         <v>#N/A</v>
@@ -20949,7 +20949,7 @@
         <v>#N/A</v>
       </c>
       <c r="S257" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T257" t="e">
         <v>#N/A</v>
@@ -21091,7 +21091,7 @@
         <v>#N/A</v>
       </c>
       <c r="S259" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T259" t="e">
         <v>#N/A</v>
@@ -21233,7 +21233,7 @@
         <v>#N/A</v>
       </c>
       <c r="S261" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T261" t="e">
         <v>#N/A</v>
@@ -21304,7 +21304,7 @@
         <v>#N/A</v>
       </c>
       <c r="S262" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T262" t="e">
         <v>#N/A</v>
@@ -21375,7 +21375,7 @@
         <v>#N/A</v>
       </c>
       <c r="S263" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T263" t="e">
         <v>#N/A</v>
@@ -22014,7 +22014,7 @@
         <v>#N/A</v>
       </c>
       <c r="S272" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T272" t="e">
         <v>#N/A</v>
@@ -22085,7 +22085,7 @@
         <v>#N/A</v>
       </c>
       <c r="S273" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T273" t="e">
         <v>#N/A</v>
@@ -22156,7 +22156,7 @@
         <v>#N/A</v>
       </c>
       <c r="S274" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T274" t="e">
         <v>#N/A</v>
@@ -22227,7 +22227,7 @@
         <v>#N/A</v>
       </c>
       <c r="S275" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T275" t="e">
         <v>#N/A</v>
@@ -22298,7 +22298,7 @@
         <v>#N/A</v>
       </c>
       <c r="S276" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T276" t="e">
         <v>#N/A</v>
@@ -22368,8 +22368,8 @@
       <c r="R277" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S277" t="n">
-        <v>4.0</v>
+      <c r="S277" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T277" t="e">
         <v>#N/A</v>
@@ -22439,8 +22439,8 @@
       <c r="R278" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S278" t="n">
-        <v>4.0</v>
+      <c r="S278" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T278" t="e">
         <v>#N/A</v>
@@ -22510,8 +22510,8 @@
       <c r="R279" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S279" t="n">
-        <v>4.0</v>
+      <c r="S279" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T279" t="e">
         <v>#N/A</v>
@@ -22581,8 +22581,8 @@
       <c r="R280" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S280" t="n">
-        <v>4.0</v>
+      <c r="S280" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T280" t="e">
         <v>#N/A</v>
@@ -22652,8 +22652,8 @@
       <c r="R281" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S281" t="n">
-        <v>4.0</v>
+      <c r="S281" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T281" t="e">
         <v>#N/A</v>
@@ -22723,8 +22723,8 @@
       <c r="R282" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S282" t="n">
-        <v>4.0</v>
+      <c r="S282" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T282" t="e">
         <v>#N/A</v>
@@ -22794,8 +22794,8 @@
       <c r="R283" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S283" t="n">
-        <v>4.0</v>
+      <c r="S283" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T283" t="e">
         <v>#N/A</v>
@@ -22866,7 +22866,7 @@
         <v>#N/A</v>
       </c>
       <c r="S284" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T284" t="e">
         <v>#N/A</v>
@@ -23483,8 +23483,8 @@
       <c r="K293" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L293" t="n">
-        <v>5.0</v>
+      <c r="L293" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M293" t="e">
         <v>#N/A</v>
@@ -23504,8 +23504,8 @@
       <c r="R293" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S293" t="e">
-        <v>#N/A</v>
+      <c r="S293" t="n">
+        <v>1.0</v>
       </c>
       <c r="T293" t="e">
         <v>#N/A</v>
@@ -23576,7 +23576,7 @@
         <v>#N/A</v>
       </c>
       <c r="S294" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T294" t="e">
         <v>#N/A</v>
@@ -24782,20 +24782,20 @@
       <c r="R311" t="n">
         <v>2.0</v>
       </c>
-      <c r="S311" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T311" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U311" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="V311" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W311" t="n">
-        <v>1.0</v>
+      <c r="S311" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T311" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U311" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V311" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W311" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="312">
@@ -25422,7 +25422,7 @@
         <v>#N/A</v>
       </c>
       <c r="S320" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T320" t="e">
         <v>#N/A</v>
@@ -25493,7 +25493,7 @@
         <v>#N/A</v>
       </c>
       <c r="S321" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T321" t="e">
         <v>#N/A</v>
@@ -25635,7 +25635,7 @@
         <v>#N/A</v>
       </c>
       <c r="S323" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T323" t="e">
         <v>#N/A</v>
@@ -25706,7 +25706,7 @@
         <v>#N/A</v>
       </c>
       <c r="S324" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T324" t="e">
         <v>#N/A</v>
@@ -25777,7 +25777,7 @@
         <v>#N/A</v>
       </c>
       <c r="S325" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T325" t="e">
         <v>#N/A</v>
@@ -25848,7 +25848,7 @@
         <v>#N/A</v>
       </c>
       <c r="S326" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T326" t="e">
         <v>#N/A</v>
@@ -25919,7 +25919,7 @@
         <v>#N/A</v>
       </c>
       <c r="S327" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T327" t="e">
         <v>#N/A</v>
@@ -25990,7 +25990,7 @@
         <v>#N/A</v>
       </c>
       <c r="S328" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T328" t="e">
         <v>#N/A</v>
@@ -26060,8 +26060,8 @@
       <c r="R329" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S329" t="e">
-        <v>#N/A</v>
+      <c r="S329" t="n">
+        <v>1.0</v>
       </c>
       <c r="T329" t="e">
         <v>#N/A</v>
@@ -26132,7 +26132,7 @@
         <v>#N/A</v>
       </c>
       <c r="S330" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T330" t="e">
         <v>#N/A</v>
@@ -26771,7 +26771,7 @@
         <v>#N/A</v>
       </c>
       <c r="S339" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T339" t="e">
         <v>#N/A</v>
@@ -27126,13 +27126,13 @@
         <v>3.0</v>
       </c>
       <c r="S344" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T344" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="U344" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="V344" t="n">
         <v>5.0</v>
@@ -27197,13 +27197,13 @@
         <v>4.0</v>
       </c>
       <c r="S345" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T345" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="U345" t="n">
-        <v>0.6</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="V345" t="n">
         <v>5.0</v>
@@ -27268,19 +27268,19 @@
         <v>3.0</v>
       </c>
       <c r="S346" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T346" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="U346" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V346" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W346" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="347">
@@ -28241,7 +28241,7 @@
         <v>1.0</v>
       </c>
       <c r="L360" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M360" t="n">
         <v>3.0</v>
@@ -28312,7 +28312,7 @@
         <v>1.0</v>
       </c>
       <c r="L361" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M361" t="n">
         <v>3.0</v>
@@ -28383,7 +28383,7 @@
         <v>1.0</v>
       </c>
       <c r="L362" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M362" t="n">
         <v>1.0</v>
@@ -28404,7 +28404,7 @@
         <v>3.0</v>
       </c>
       <c r="S362" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T362" t="e">
         <v>#N/A</v>
@@ -28454,7 +28454,7 @@
         <v>1.0</v>
       </c>
       <c r="L363" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M363" t="n">
         <v>1.0</v>
@@ -28475,7 +28475,7 @@
         <v>3.0</v>
       </c>
       <c r="S363" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T363" t="e">
         <v>#N/A</v>
@@ -28546,7 +28546,7 @@
         <v>3.0</v>
       </c>
       <c r="S364" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T364" t="e">
         <v>#N/A</v>
@@ -28617,7 +28617,7 @@
         <v>3.0</v>
       </c>
       <c r="S365" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T365" t="e">
         <v>#N/A</v>
@@ -28688,7 +28688,7 @@
         <v>3.0</v>
       </c>
       <c r="S366" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T366" t="e">
         <v>#N/A</v>
@@ -28758,8 +28758,8 @@
       <c r="R367" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S367" t="n">
-        <v>4.0</v>
+      <c r="S367" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T367" t="e">
         <v>#N/A</v>
@@ -28829,20 +28829,20 @@
       <c r="R368" t="n">
         <v>1.0</v>
       </c>
-      <c r="S368" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T368" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U368" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V368" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W368" t="n">
-        <v>1.0</v>
+      <c r="S368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V368" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W368" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="369">
@@ -28901,13 +28901,13 @@
         <v>1.0</v>
       </c>
       <c r="S369" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T369" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="U369" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V369" t="n">
         <v>5.0</v>
@@ -28972,13 +28972,13 @@
         <v>1.0</v>
       </c>
       <c r="S370" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T370" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="U370" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V370" t="n">
         <v>5.0</v>
@@ -29042,20 +29042,20 @@
       <c r="R371" t="n">
         <v>1.0</v>
       </c>
-      <c r="S371" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T371" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U371" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V371" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W371" t="n">
-        <v>1.0</v>
+      <c r="S371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V371" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W371" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="372">
@@ -29113,20 +29113,20 @@
       <c r="R372" t="n">
         <v>1.0</v>
       </c>
-      <c r="S372" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T372" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U372" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V372" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W372" t="n">
-        <v>1.0</v>
+      <c r="S372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V372" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W372" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="373">
@@ -29164,7 +29164,7 @@
         <v>5.0</v>
       </c>
       <c r="L373" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M373" t="n">
         <v>3.0</v>
@@ -29188,10 +29188,10 @@
         <v>1.0</v>
       </c>
       <c r="T373" t="n">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="U373" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="V373" t="n">
         <v>5.0</v>
@@ -29448,7 +29448,7 @@
         <v>3.0</v>
       </c>
       <c r="L377" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M377" t="n">
         <v>3.0</v>
@@ -29472,10 +29472,10 @@
         <v>1.0</v>
       </c>
       <c r="T377" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="U377" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V377" t="n">
         <v>5.0</v>
@@ -29519,7 +29519,7 @@
         <v>1.0</v>
       </c>
       <c r="L378" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M378" t="n">
         <v>1.0</v>
@@ -29543,10 +29543,10 @@
         <v>3.0</v>
       </c>
       <c r="T378" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="U378" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="V378" t="n">
         <v>5.0</v>
@@ -29874,7 +29874,7 @@
         <v>1.0</v>
       </c>
       <c r="L383" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M383" t="n">
         <v>1.0</v>
@@ -29898,10 +29898,10 @@
         <v>2.0</v>
       </c>
       <c r="T383" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="U383" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="V383" t="n">
         <v>5.0</v>
@@ -29965,20 +29965,20 @@
       <c r="R384" t="n">
         <v>1.0</v>
       </c>
-      <c r="S384" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T384" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U384" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V384" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W384" t="n">
-        <v>1.0</v>
+      <c r="S384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V384" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W384" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="385">
@@ -30036,20 +30036,20 @@
       <c r="R385" t="n">
         <v>1.0</v>
       </c>
-      <c r="S385" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T385" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U385" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V385" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W385" t="n">
-        <v>1.0</v>
+      <c r="S385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V385" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W385" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="386">
@@ -30107,20 +30107,20 @@
       <c r="R386" t="n">
         <v>1.0</v>
       </c>
-      <c r="S386" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T386" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U386" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V386" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W386" t="n">
-        <v>1.0</v>
+      <c r="S386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V386" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W386" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="387">
@@ -30178,20 +30178,20 @@
       <c r="R387" t="n">
         <v>1.0</v>
       </c>
-      <c r="S387" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T387" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U387" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="V387" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W387" t="n">
-        <v>1.0</v>
+      <c r="S387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V387" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W387" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="388">
@@ -30534,13 +30534,13 @@
         <v>2.0</v>
       </c>
       <c r="S392" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T392" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="U392" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V392" t="n">
         <v>5.0</v>
@@ -30605,13 +30605,13 @@
         <v>3.0</v>
       </c>
       <c r="S393" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T393" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="U393" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V393" t="n">
         <v>5.0</v>
@@ -31102,13 +31102,13 @@
         <v>2.0</v>
       </c>
       <c r="S400" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T400" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="U400" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V400" t="n">
         <v>5.0</v>
@@ -31436,7 +31436,7 @@
         <v>3.0</v>
       </c>
       <c r="L405" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M405" t="n">
         <v>3.0</v>
@@ -31460,10 +31460,10 @@
         <v>3.0</v>
       </c>
       <c r="T405" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="U405" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V405" t="n">
         <v>5.0</v>
@@ -31507,7 +31507,7 @@
         <v>5.0</v>
       </c>
       <c r="L406" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M406" t="n">
         <v>3.0</v>
@@ -31531,16 +31531,16 @@
         <v>5.0</v>
       </c>
       <c r="T406" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="U406" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V406" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="W406" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="407">
@@ -31578,7 +31578,7 @@
         <v>5.0</v>
       </c>
       <c r="L407" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M407" t="n">
         <v>3.0</v>
@@ -31602,16 +31602,16 @@
         <v>5.0</v>
       </c>
       <c r="T407" t="n">
-        <v>37.0</v>
+        <v>35.0</v>
       </c>
       <c r="U407" t="n">
-        <v>0.8222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V407" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="W407" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="408">
@@ -31649,7 +31649,7 @@
         <v>5.0</v>
       </c>
       <c r="L408" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M408" t="n">
         <v>3.0</v>
@@ -31670,7 +31670,7 @@
         <v>4.0</v>
       </c>
       <c r="S408" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T408" t="n">
         <v>33.0</v>
@@ -32025,7 +32025,7 @@
         <v>#N/A</v>
       </c>
       <c r="S413" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T413" t="e">
         <v>#N/A</v>
@@ -32096,7 +32096,7 @@
         <v>#N/A</v>
       </c>
       <c r="S414" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T414" t="e">
         <v>#N/A</v>
@@ -32451,7 +32451,7 @@
         <v>#N/A</v>
       </c>
       <c r="S419" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T419" t="e">
         <v>#N/A</v>
@@ -32522,7 +32522,7 @@
         <v>#N/A</v>
       </c>
       <c r="S420" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T420" t="e">
         <v>#N/A</v>
@@ -32572,7 +32572,7 @@
         <v>#N/A</v>
       </c>
       <c r="L421" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M421" t="e">
         <v>#N/A</v>
@@ -32593,7 +32593,7 @@
         <v>#N/A</v>
       </c>
       <c r="S421" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T421" t="e">
         <v>#N/A</v>
@@ -32664,7 +32664,7 @@
         <v>#N/A</v>
       </c>
       <c r="S422" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T422" t="e">
         <v>#N/A</v>
@@ -32735,7 +32735,7 @@
         <v>#N/A</v>
       </c>
       <c r="S423" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T423" t="e">
         <v>#N/A</v>
@@ -32877,7 +32877,7 @@
         <v>#N/A</v>
       </c>
       <c r="S425" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T425" t="e">
         <v>#N/A</v>
@@ -32948,7 +32948,7 @@
         <v>#N/A</v>
       </c>
       <c r="S426" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T426" t="e">
         <v>#N/A</v>
@@ -33019,7 +33019,7 @@
         <v>#N/A</v>
       </c>
       <c r="S427" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T427" t="e">
         <v>#N/A</v>
@@ -33090,7 +33090,7 @@
         <v>#N/A</v>
       </c>
       <c r="S428" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T428" t="e">
         <v>#N/A</v>
@@ -33231,8 +33231,8 @@
       <c r="R430" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S430" t="n">
-        <v>5.0</v>
+      <c r="S430" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T430" t="e">
         <v>#N/A</v>
@@ -33516,19 +33516,19 @@
         <v>5.0</v>
       </c>
       <c r="S434" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T434" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="U434" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="V434" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="W434" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="435">
@@ -33587,13 +33587,13 @@
         <v>5.0</v>
       </c>
       <c r="S435" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T435" t="n">
-        <v>38.0</v>
+        <v>40.0</v>
       </c>
       <c r="U435" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V435" t="n">
         <v>3.0</v>
@@ -33658,19 +33658,19 @@
         <v>5.0</v>
       </c>
       <c r="S436" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T436" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="U436" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="V436" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="W436" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="437">
@@ -33729,7 +33729,7 @@
         <v>#N/A</v>
       </c>
       <c r="S437" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T437" t="e">
         <v>#N/A</v>
@@ -34226,7 +34226,7 @@
         <v>#N/A</v>
       </c>
       <c r="S444" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T444" t="e">
         <v>#N/A</v>
@@ -34439,13 +34439,13 @@
         <v>1.0</v>
       </c>
       <c r="S447" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T447" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="U447" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V447" t="n">
         <v>5.0</v>
@@ -34510,13 +34510,13 @@
         <v>3.0</v>
       </c>
       <c r="S448" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T448" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="U448" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6</v>
       </c>
       <c r="V448" t="n">
         <v>5.0</v>
@@ -34581,13 +34581,13 @@
         <v>3.0</v>
       </c>
       <c r="S449" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T449" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="U449" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6</v>
       </c>
       <c r="V449" t="n">
         <v>5.0</v>
@@ -34652,7 +34652,7 @@
         <v>#N/A</v>
       </c>
       <c r="S450" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T450" t="e">
         <v>#N/A</v>
@@ -34723,7 +34723,7 @@
         <v>#N/A</v>
       </c>
       <c r="S451" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T451" t="e">
         <v>#N/A</v>
@@ -34794,7 +34794,7 @@
         <v>#N/A</v>
       </c>
       <c r="S452" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T452" t="e">
         <v>#N/A</v>
@@ -34865,7 +34865,7 @@
         <v>#N/A</v>
       </c>
       <c r="S453" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T453" t="e">
         <v>#N/A</v>
@@ -34936,7 +34936,7 @@
         <v>#N/A</v>
       </c>
       <c r="S454" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T454" t="e">
         <v>#N/A</v>
@@ -34985,8 +34985,8 @@
       <c r="K455" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L455" t="n">
-        <v>5.0</v>
+      <c r="L455" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M455" t="e">
         <v>#N/A</v>
@@ -35007,7 +35007,7 @@
         <v>#N/A</v>
       </c>
       <c r="S455" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T455" t="e">
         <v>#N/A</v>
@@ -35078,7 +35078,7 @@
         <v>#N/A</v>
       </c>
       <c r="S456" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T456" t="e">
         <v>#N/A</v>
@@ -35149,7 +35149,7 @@
         <v>#N/A</v>
       </c>
       <c r="S457" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T457" t="e">
         <v>#N/A</v>
@@ -35198,8 +35198,8 @@
       <c r="K458" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L458" t="n">
-        <v>5.0</v>
+      <c r="L458" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M458" t="e">
         <v>#N/A</v>
@@ -35482,8 +35482,8 @@
       <c r="K462" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L462" t="n">
-        <v>5.0</v>
+      <c r="L462" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M462" t="e">
         <v>#N/A</v>
@@ -35504,7 +35504,7 @@
         <v>#N/A</v>
       </c>
       <c r="S462" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T462" t="e">
         <v>#N/A</v>
@@ -35574,8 +35574,8 @@
       <c r="R463" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S463" t="n">
-        <v>1.0</v>
+      <c r="S463" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T463" t="e">
         <v>#N/A</v>
@@ -35645,8 +35645,8 @@
       <c r="R464" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S464" t="n">
-        <v>4.0</v>
+      <c r="S464" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T464" t="e">
         <v>#N/A</v>
@@ -35716,8 +35716,8 @@
       <c r="R465" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S465" t="n">
-        <v>4.0</v>
+      <c r="S465" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T465" t="e">
         <v>#N/A</v>
@@ -35788,7 +35788,7 @@
         <v>#N/A</v>
       </c>
       <c r="S466" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T466" t="e">
         <v>#N/A</v>
@@ -35837,8 +35837,8 @@
       <c r="K467" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L467" t="n">
-        <v>5.0</v>
+      <c r="L467" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M467" t="e">
         <v>#N/A</v>
@@ -35859,7 +35859,7 @@
         <v>#N/A</v>
       </c>
       <c r="S467" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T467" t="e">
         <v>#N/A</v>
@@ -35930,7 +35930,7 @@
         <v>#N/A</v>
       </c>
       <c r="S468" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T468" t="e">
         <v>#N/A</v>
@@ -36000,8 +36000,8 @@
       <c r="R469" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S469" t="n">
-        <v>1.0</v>
+      <c r="S469" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T469" t="e">
         <v>#N/A</v>
@@ -36071,8 +36071,8 @@
       <c r="R470" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S470" t="n">
-        <v>1.0</v>
+      <c r="S470" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T470" t="e">
         <v>#N/A</v>
@@ -36142,8 +36142,8 @@
       <c r="R471" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S471" t="n">
-        <v>1.0</v>
+      <c r="S471" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T471" t="e">
         <v>#N/A</v>
@@ -36192,8 +36192,8 @@
       <c r="K472" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L472" t="n">
-        <v>5.0</v>
+      <c r="L472" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M472" t="e">
         <v>#N/A</v>
@@ -36213,8 +36213,8 @@
       <c r="R472" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S472" t="n">
-        <v>4.0</v>
+      <c r="S472" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T472" t="e">
         <v>#N/A</v>
@@ -36284,8 +36284,8 @@
       <c r="R473" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S473" t="n">
-        <v>4.0</v>
+      <c r="S473" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T473" t="e">
         <v>#N/A</v>
@@ -36355,8 +36355,8 @@
       <c r="R474" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S474" t="n">
-        <v>4.0</v>
+      <c r="S474" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T474" t="e">
         <v>#N/A</v>
@@ -36426,8 +36426,8 @@
       <c r="R475" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S475" t="n">
-        <v>4.0</v>
+      <c r="S475" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T475" t="e">
         <v>#N/A</v>
@@ -36497,8 +36497,8 @@
       <c r="R476" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S476" t="n">
-        <v>4.0</v>
+      <c r="S476" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T476" t="e">
         <v>#N/A</v>
@@ -36568,8 +36568,8 @@
       <c r="R477" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S477" t="n">
-        <v>4.0</v>
+      <c r="S477" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T477" t="e">
         <v>#N/A</v>
@@ -36639,8 +36639,8 @@
       <c r="R478" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S478" t="n">
-        <v>4.0</v>
+      <c r="S478" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T478" t="e">
         <v>#N/A</v>
@@ -36689,8 +36689,8 @@
       <c r="K479" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L479" t="n">
-        <v>5.0</v>
+      <c r="L479" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M479" t="e">
         <v>#N/A</v>
@@ -36710,8 +36710,8 @@
       <c r="R479" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S479" t="n">
-        <v>1.0</v>
+      <c r="S479" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T479" t="e">
         <v>#N/A</v>
@@ -36781,8 +36781,8 @@
       <c r="R480" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S480" t="n">
-        <v>1.0</v>
+      <c r="S480" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T480" t="e">
         <v>#N/A</v>
@@ -36831,8 +36831,8 @@
       <c r="K481" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L481" t="n">
-        <v>5.0</v>
+      <c r="L481" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M481" t="e">
         <v>#N/A</v>
@@ -36852,8 +36852,8 @@
       <c r="R481" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S481" t="n">
-        <v>1.0</v>
+      <c r="S481" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T481" t="e">
         <v>#N/A</v>
@@ -36924,7 +36924,7 @@
         <v>#N/A</v>
       </c>
       <c r="S482" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T482" t="e">
         <v>#N/A</v>
@@ -36995,7 +36995,7 @@
         <v>#N/A</v>
       </c>
       <c r="S483" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T483" t="e">
         <v>#N/A</v>
@@ -37044,8 +37044,8 @@
       <c r="K484" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L484" t="n">
-        <v>5.0</v>
+      <c r="L484" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M484" t="e">
         <v>#N/A</v>
@@ -37066,7 +37066,7 @@
         <v>#N/A</v>
       </c>
       <c r="S484" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T484" t="e">
         <v>#N/A</v>
@@ -37137,7 +37137,7 @@
         <v>#N/A</v>
       </c>
       <c r="S485" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T485" t="e">
         <v>#N/A</v>
@@ -37257,8 +37257,8 @@
       <c r="K487" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L487" t="n">
-        <v>5.0</v>
+      <c r="L487" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M487" t="e">
         <v>#N/A</v>
@@ -37328,8 +37328,8 @@
       <c r="K488" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L488" t="n">
-        <v>5.0</v>
+      <c r="L488" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M488" t="e">
         <v>#N/A</v>
@@ -37349,8 +37349,8 @@
       <c r="R488" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S488" t="n">
-        <v>5.0</v>
+      <c r="S488" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T488" t="e">
         <v>#N/A</v>
@@ -37421,7 +37421,7 @@
         <v>#N/A</v>
       </c>
       <c r="S489" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T489" t="e">
         <v>#N/A</v>
@@ -37491,8 +37491,8 @@
       <c r="R490" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S490" t="n">
-        <v>1.0</v>
+      <c r="S490" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T490" t="e">
         <v>#N/A</v>
@@ -37562,8 +37562,8 @@
       <c r="R491" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S491" t="n">
-        <v>4.0</v>
+      <c r="S491" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T491" t="e">
         <v>#N/A</v>
@@ -37633,8 +37633,8 @@
       <c r="R492" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S492" t="n">
-        <v>1.0</v>
+      <c r="S492" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T492" t="e">
         <v>#N/A</v>
@@ -37683,8 +37683,8 @@
       <c r="K493" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L493" t="n">
-        <v>5.0</v>
+      <c r="L493" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M493" t="e">
         <v>#N/A</v>
@@ -37704,8 +37704,8 @@
       <c r="R493" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S493" t="n">
-        <v>1.0</v>
+      <c r="S493" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T493" t="e">
         <v>#N/A</v>
@@ -37775,8 +37775,8 @@
       <c r="R494" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S494" t="n">
-        <v>1.0</v>
+      <c r="S494" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T494" t="e">
         <v>#N/A</v>
@@ -37846,8 +37846,8 @@
       <c r="R495" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S495" t="n">
-        <v>1.0</v>
+      <c r="S495" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T495" t="e">
         <v>#N/A</v>
@@ -37896,8 +37896,8 @@
       <c r="K496" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L496" t="n">
-        <v>5.0</v>
+      <c r="L496" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M496" t="e">
         <v>#N/A</v>
@@ -37918,7 +37918,7 @@
         <v>#N/A</v>
       </c>
       <c r="S496" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T496" t="e">
         <v>#N/A</v>
@@ -37988,8 +37988,8 @@
       <c r="R497" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S497" t="n">
-        <v>1.0</v>
+      <c r="S497" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T497" t="e">
         <v>#N/A</v>
@@ -38201,8 +38201,8 @@
       <c r="R500" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S500" t="n">
-        <v>1.0</v>
+      <c r="S500" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T500" t="e">
         <v>#N/A</v>
@@ -38272,8 +38272,8 @@
       <c r="R501" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S501" t="n">
-        <v>1.0</v>
+      <c r="S501" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T501" t="e">
         <v>#N/A</v>
@@ -38343,8 +38343,8 @@
       <c r="R502" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S502" t="n">
-        <v>1.0</v>
+      <c r="S502" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T502" t="e">
         <v>#N/A</v>
@@ -38415,7 +38415,7 @@
         <v>#N/A</v>
       </c>
       <c r="S503" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T503" t="e">
         <v>#N/A</v>
@@ -38485,8 +38485,8 @@
       <c r="R504" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S504" t="n">
-        <v>1.0</v>
+      <c r="S504" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T504" t="e">
         <v>#N/A</v>
@@ -38556,8 +38556,8 @@
       <c r="R505" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S505" t="n">
-        <v>1.0</v>
+      <c r="S505" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T505" t="e">
         <v>#N/A</v>
@@ -38627,8 +38627,8 @@
       <c r="R506" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S506" t="n">
-        <v>1.0</v>
+      <c r="S506" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T506" t="e">
         <v>#N/A</v>
@@ -38677,8 +38677,8 @@
       <c r="K507" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L507" t="n">
-        <v>5.0</v>
+      <c r="L507" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M507" t="e">
         <v>#N/A</v>
@@ -38698,8 +38698,8 @@
       <c r="R507" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S507" t="n">
-        <v>1.0</v>
+      <c r="S507" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T507" t="e">
         <v>#N/A</v>
@@ -38769,8 +38769,8 @@
       <c r="R508" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S508" t="n">
-        <v>1.0</v>
+      <c r="S508" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T508" t="e">
         <v>#N/A</v>
@@ -38819,8 +38819,8 @@
       <c r="K509" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L509" t="n">
-        <v>5.0</v>
+      <c r="L509" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M509" t="e">
         <v>#N/A</v>
@@ -38840,8 +38840,8 @@
       <c r="R509" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S509" t="n">
-        <v>4.0</v>
+      <c r="S509" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T509" t="e">
         <v>#N/A</v>
@@ -38912,7 +38912,7 @@
         <v>#N/A</v>
       </c>
       <c r="S510" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T510" t="e">
         <v>#N/A</v>
@@ -38982,8 +38982,8 @@
       <c r="R511" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S511" t="n">
-        <v>4.0</v>
+      <c r="S511" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T511" t="e">
         <v>#N/A</v>
@@ -39053,8 +39053,8 @@
       <c r="R512" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S512" t="n">
-        <v>4.0</v>
+      <c r="S512" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T512" t="e">
         <v>#N/A</v>
@@ -39124,8 +39124,8 @@
       <c r="R513" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S513" t="n">
-        <v>4.0</v>
+      <c r="S513" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T513" t="e">
         <v>#N/A</v>
@@ -39195,8 +39195,8 @@
       <c r="R514" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S514" t="n">
-        <v>4.0</v>
+      <c r="S514" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T514" t="e">
         <v>#N/A</v>
@@ -39266,8 +39266,8 @@
       <c r="R515" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S515" t="n">
-        <v>4.0</v>
+      <c r="S515" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T515" t="e">
         <v>#N/A</v>
@@ -39337,8 +39337,8 @@
       <c r="R516" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S516" t="n">
-        <v>4.0</v>
+      <c r="S516" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T516" t="e">
         <v>#N/A</v>
@@ -39408,8 +39408,8 @@
       <c r="R517" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S517" t="n">
-        <v>4.0</v>
+      <c r="S517" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T517" t="e">
         <v>#N/A</v>
@@ -40261,7 +40261,7 @@
         <v>#N/A</v>
       </c>
       <c r="S529" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T529" t="e">
         <v>#N/A</v>
@@ -40382,7 +40382,7 @@
         <v>1.0</v>
       </c>
       <c r="L531" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M531" t="n">
         <v>1.0</v>
@@ -40406,10 +40406,10 @@
         <v>1.0</v>
       </c>
       <c r="T531" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="U531" t="n">
-        <v>0.28888888888888886</v>
+        <v>0.24444444444444444</v>
       </c>
       <c r="V531" t="n">
         <v>5.0</v>
@@ -40971,7 +40971,7 @@
         <v>#N/A</v>
       </c>
       <c r="S539" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T539" t="e">
         <v>#N/A</v>
@@ -41113,7 +41113,7 @@
         <v>#N/A</v>
       </c>
       <c r="S541" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T541" t="e">
         <v>#N/A</v>
@@ -41184,7 +41184,7 @@
         <v>#N/A</v>
       </c>
       <c r="S542" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T542" t="e">
         <v>#N/A</v>
@@ -41255,7 +41255,7 @@
         <v>#N/A</v>
       </c>
       <c r="S543" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T543" t="e">
         <v>#N/A</v>
@@ -41326,7 +41326,7 @@
         <v>#N/A</v>
       </c>
       <c r="S544" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T544" t="e">
         <v>#N/A</v>
@@ -41397,7 +41397,7 @@
         <v>#N/A</v>
       </c>
       <c r="S545" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T545" t="e">
         <v>#N/A</v>
@@ -41468,7 +41468,7 @@
         <v>#N/A</v>
       </c>
       <c r="S546" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T546" t="e">
         <v>#N/A</v>
@@ -41610,7 +41610,7 @@
         <v>#N/A</v>
       </c>
       <c r="S548" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T548" t="e">
         <v>#N/A</v>
@@ -41822,8 +41822,8 @@
       <c r="R551" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S551" t="n">
-        <v>5.0</v>
+      <c r="S551" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T551" t="e">
         <v>#N/A</v>
@@ -42675,7 +42675,7 @@
         <v>#N/A</v>
       </c>
       <c r="S563" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T563" t="e">
         <v>#N/A</v>
@@ -43243,7 +43243,7 @@
         <v>#N/A</v>
       </c>
       <c r="S571" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T571" t="e">
         <v>#N/A</v>
@@ -43598,7 +43598,7 @@
         <v>#N/A</v>
       </c>
       <c r="S576" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T576" t="e">
         <v>#N/A</v>
@@ -43669,7 +43669,7 @@
         <v>#N/A</v>
       </c>
       <c r="S577" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T577" t="e">
         <v>#N/A</v>
@@ -43861,7 +43861,7 @@
         <v>#N/A</v>
       </c>
       <c r="L580" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M580" t="e">
         <v>#N/A</v>
@@ -43882,7 +43882,7 @@
         <v>#N/A</v>
       </c>
       <c r="S580" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T580" t="e">
         <v>#N/A</v>
@@ -44805,7 +44805,7 @@
         <v>#N/A</v>
       </c>
       <c r="S593" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T593" t="e">
         <v>#N/A</v>
@@ -45138,8 +45138,8 @@
       <c r="K598" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L598" t="n">
-        <v>5.0</v>
+      <c r="L598" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M598" t="e">
         <v>#N/A</v>
@@ -45159,8 +45159,8 @@
       <c r="R598" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S598" t="n">
-        <v>4.0</v>
+      <c r="S598" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T598" t="e">
         <v>#N/A</v>
@@ -45230,8 +45230,8 @@
       <c r="R599" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S599" t="n">
-        <v>4.0</v>
+      <c r="S599" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T599" t="e">
         <v>#N/A</v>
@@ -45280,8 +45280,8 @@
       <c r="K600" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L600" t="n">
-        <v>5.0</v>
+      <c r="L600" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M600" t="e">
         <v>#N/A</v>
@@ -45301,8 +45301,8 @@
       <c r="R600" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S600" t="n">
-        <v>4.0</v>
+      <c r="S600" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T600" t="e">
         <v>#N/A</v>
@@ -45373,7 +45373,7 @@
         <v>#N/A</v>
       </c>
       <c r="S601" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T601" t="e">
         <v>#N/A</v>
@@ -45444,7 +45444,7 @@
         <v>#N/A</v>
       </c>
       <c r="S602" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T602" t="e">
         <v>#N/A</v>
@@ -45514,8 +45514,8 @@
       <c r="R603" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S603" t="n">
-        <v>4.0</v>
+      <c r="S603" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T603" t="e">
         <v>#N/A</v>
@@ -46437,8 +46437,8 @@
       <c r="R616" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S616" t="n">
-        <v>4.0</v>
+      <c r="S616" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T616" t="e">
         <v>#N/A</v>
@@ -47361,7 +47361,7 @@
         <v>#N/A</v>
       </c>
       <c r="S629" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T629" t="e">
         <v>#N/A</v>
@@ -47716,7 +47716,7 @@
         <v>#N/A</v>
       </c>
       <c r="S634" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T634" t="e">
         <v>#N/A</v>
@@ -47787,7 +47787,7 @@
         <v>#N/A</v>
       </c>
       <c r="S635" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T635" t="e">
         <v>#N/A</v>
@@ -47929,7 +47929,7 @@
         <v>#N/A</v>
       </c>
       <c r="S637" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="T637" t="e">
         <v>#N/A</v>
@@ -48000,7 +48000,7 @@
         <v>#N/A</v>
       </c>
       <c r="S638" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T638" t="e">
         <v>#N/A</v>
@@ -48425,8 +48425,8 @@
       <c r="R644" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S644" t="n">
-        <v>4.0</v>
+      <c r="S644" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T644" t="e">
         <v>#N/A</v>
@@ -49846,13 +49846,13 @@
         <v>3.0</v>
       </c>
       <c r="S664" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T664" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="U664" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V664" t="n">
         <v>5.0</v>
@@ -50413,8 +50413,8 @@
       <c r="R672" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S672" t="n">
-        <v>4.0</v>
+      <c r="S672" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T672" t="e">
         <v>#N/A</v>
@@ -50484,8 +50484,8 @@
       <c r="R673" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S673" t="n">
-        <v>4.0</v>
+      <c r="S673" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T673" t="e">
         <v>#N/A</v>
@@ -50555,8 +50555,8 @@
       <c r="R674" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S674" t="n">
-        <v>4.0</v>
+      <c r="S674" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T674" t="e">
         <v>#N/A</v>
@@ -50627,13 +50627,13 @@
         <v>4.0</v>
       </c>
       <c r="S675" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T675" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="U675" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V675" t="n">
         <v>5.0</v>
@@ -50769,13 +50769,13 @@
         <v>5.0</v>
       </c>
       <c r="S677" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T677" t="n">
-        <v>44.0</v>
+        <v>41.0</v>
       </c>
       <c r="U677" t="n">
-        <v>0.9777777777777777</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="V677" t="n">
         <v>1.0</v>
@@ -50839,20 +50839,20 @@
       <c r="R678" t="n">
         <v>5.0</v>
       </c>
-      <c r="S678" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T678" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="U678" t="n">
-        <v>0.8444444444444444</v>
-      </c>
-      <c r="V678" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W678" t="n">
-        <v>3.0</v>
+      <c r="S678" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T678" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U678" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V678" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W678" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="679">
@@ -50911,13 +50911,13 @@
         <v>1.0</v>
       </c>
       <c r="S679" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T679" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="U679" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V679" t="n">
         <v>5.0</v>
@@ -50982,13 +50982,13 @@
         <v>1.0</v>
       </c>
       <c r="S680" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T680" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="U680" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V680" t="n">
         <v>5.0</v>
@@ -51053,13 +51053,13 @@
         <v>3.0</v>
       </c>
       <c r="S681" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T681" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="U681" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V681" t="n">
         <v>5.0</v>
@@ -51124,13 +51124,13 @@
         <v>1.0</v>
       </c>
       <c r="S682" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T682" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="U682" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V682" t="n">
         <v>5.0</v>
@@ -51194,20 +51194,20 @@
       <c r="R683" t="n">
         <v>1.0</v>
       </c>
-      <c r="S683" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T683" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U683" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="V683" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W683" t="n">
-        <v>1.0</v>
+      <c r="S683" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T683" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U683" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V683" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W683" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="684">
@@ -51266,13 +51266,13 @@
         <v>2.0</v>
       </c>
       <c r="S684" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T684" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="U684" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V684" t="n">
         <v>5.0</v>
@@ -51337,13 +51337,13 @@
         <v>3.0</v>
       </c>
       <c r="S685" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T685" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="U685" t="n">
-        <v>0.5777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V685" t="n">
         <v>5.0</v>
@@ -51408,13 +51408,13 @@
         <v>3.0</v>
       </c>
       <c r="S686" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T686" t="n">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
       <c r="U686" t="n">
-        <v>0.7111111111111111</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V686" t="n">
         <v>5.0</v>
@@ -51479,13 +51479,13 @@
         <v>4.0</v>
       </c>
       <c r="S687" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T687" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="U687" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V687" t="n">
         <v>5.0</v>
@@ -51550,13 +51550,13 @@
         <v>3.0</v>
       </c>
       <c r="S688" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T688" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="U688" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V688" t="n">
         <v>5.0</v>
@@ -51620,20 +51620,20 @@
       <c r="R689" t="n">
         <v>3.0</v>
       </c>
-      <c r="S689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V689" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W689" t="e">
-        <v>#N/A</v>
+      <c r="S689" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T689" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U689" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V689" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W689" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="690">
@@ -51671,7 +51671,7 @@
         <v>1.0</v>
       </c>
       <c r="L690" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M690" t="n">
         <v>5.0</v>
@@ -51692,13 +51692,13 @@
         <v>2.0</v>
       </c>
       <c r="S690" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T690" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="U690" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V690" t="n">
         <v>5.0</v>
@@ -51763,13 +51763,13 @@
         <v>2.0</v>
       </c>
       <c r="S691" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T691" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="U691" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="V691" t="n">
         <v>5.0</v>
@@ -51813,7 +51813,7 @@
         <v>1.0</v>
       </c>
       <c r="L692" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M692" t="n">
         <v>5.0</v>
@@ -51834,13 +51834,13 @@
         <v>2.0</v>
       </c>
       <c r="S692" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T692" t="n">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
       <c r="U692" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="V692" t="n">
         <v>5.0</v>
@@ -51884,7 +51884,7 @@
         <v>1.0</v>
       </c>
       <c r="L693" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M693" t="n">
         <v>5.0</v>
@@ -51905,13 +51905,13 @@
         <v>2.0</v>
       </c>
       <c r="S693" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T693" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="U693" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="V693" t="n">
         <v>5.0</v>
@@ -51976,13 +51976,13 @@
         <v>2.0</v>
       </c>
       <c r="S694" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T694" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="U694" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="V694" t="n">
         <v>5.0</v>
@@ -52047,13 +52047,13 @@
         <v>2.0</v>
       </c>
       <c r="S695" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T695" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="U695" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V695" t="n">
         <v>5.0</v>
@@ -52118,13 +52118,13 @@
         <v>2.0</v>
       </c>
       <c r="S696" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T696" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="U696" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="V696" t="n">
         <v>5.0</v>
@@ -52189,13 +52189,13 @@
         <v>2.0</v>
       </c>
       <c r="S697" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T697" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="U697" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="V697" t="n">
         <v>5.0</v>
@@ -52260,13 +52260,13 @@
         <v>2.0</v>
       </c>
       <c r="S698" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T698" t="n">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="U698" t="n">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="V698" t="n">
         <v>5.0</v>
@@ -52330,20 +52330,20 @@
       <c r="R699" t="n">
         <v>2.0</v>
       </c>
-      <c r="S699" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T699" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U699" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V699" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="W699" t="n">
-        <v>1.0</v>
+      <c r="S699" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T699" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="U699" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V699" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W699" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="700">
@@ -52402,13 +52402,13 @@
         <v>1.0</v>
       </c>
       <c r="S700" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T700" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="U700" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V700" t="n">
         <v>5.0</v>
@@ -52473,13 +52473,13 @@
         <v>1.0</v>
       </c>
       <c r="S701" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T701" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="U701" t="n">
-        <v>0.4888888888888889</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="V701" t="n">
         <v>5.0</v>
@@ -52544,13 +52544,13 @@
         <v>1.0</v>
       </c>
       <c r="S702" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T702" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="U702" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V702" t="n">
         <v>5.0</v>
@@ -52615,13 +52615,13 @@
         <v>1.0</v>
       </c>
       <c r="S703" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T703" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="U703" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="V703" t="n">
         <v>5.0</v>
@@ -52686,13 +52686,13 @@
         <v>1.0</v>
       </c>
       <c r="S704" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T704" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="U704" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V704" t="n">
         <v>5.0</v>
@@ -52757,13 +52757,13 @@
         <v>1.0</v>
       </c>
       <c r="S705" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T705" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="U705" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="V705" t="n">
         <v>5.0</v>
@@ -52828,13 +52828,13 @@
         <v>2.0</v>
       </c>
       <c r="S706" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T706" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="U706" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6</v>
       </c>
       <c r="V706" t="n">
         <v>5.0</v>
@@ -52899,13 +52899,13 @@
         <v>2.0</v>
       </c>
       <c r="S707" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T707" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="U707" t="n">
-        <v>0.6888888888888889</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="V707" t="n">
         <v>5.0</v>
@@ -52970,7 +52970,7 @@
         <v>#N/A</v>
       </c>
       <c r="S708" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T708" t="e">
         <v>#N/A</v>
@@ -53041,7 +53041,7 @@
         <v>#N/A</v>
       </c>
       <c r="S709" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T709" t="e">
         <v>#N/A</v>
@@ -53112,7 +53112,7 @@
         <v>#N/A</v>
       </c>
       <c r="S710" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T710" t="e">
         <v>#N/A</v>
@@ -53183,7 +53183,7 @@
         <v>#N/A</v>
       </c>
       <c r="S711" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T711" t="e">
         <v>#N/A</v>
@@ -53254,7 +53254,7 @@
         <v>#N/A</v>
       </c>
       <c r="S712" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T712" t="e">
         <v>#N/A</v>
@@ -53325,7 +53325,7 @@
         <v>#N/A</v>
       </c>
       <c r="S713" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T713" t="e">
         <v>#N/A</v>
@@ -53467,7 +53467,7 @@
         <v>#N/A</v>
       </c>
       <c r="S715" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T715" t="e">
         <v>#N/A</v>
@@ -53538,7 +53538,7 @@
         <v>#N/A</v>
       </c>
       <c r="S716" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T716" t="e">
         <v>#N/A</v>
@@ -53609,7 +53609,7 @@
         <v>#N/A</v>
       </c>
       <c r="S717" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T717" t="e">
         <v>#N/A</v>
@@ -53680,7 +53680,7 @@
         <v>#N/A</v>
       </c>
       <c r="S718" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T718" t="e">
         <v>#N/A</v>
@@ -53751,7 +53751,7 @@
         <v>#N/A</v>
       </c>
       <c r="S719" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T719" t="e">
         <v>#N/A</v>
@@ -54035,7 +54035,7 @@
         <v>#N/A</v>
       </c>
       <c r="S723" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="T723" t="e">
         <v>#N/A</v>
@@ -54106,7 +54106,7 @@
         <v>#N/A</v>
       </c>
       <c r="S724" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T724" t="e">
         <v>#N/A</v>
@@ -54177,7 +54177,7 @@
         <v>#N/A</v>
       </c>
       <c r="S725" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T725" t="e">
         <v>#N/A</v>
@@ -54460,8 +54460,8 @@
       <c r="R729" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S729" t="n">
-        <v>5.0</v>
+      <c r="S729" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T729" t="e">
         <v>#N/A</v>
@@ -54531,8 +54531,8 @@
       <c r="R730" t="e">
         <v>#N/A</v>
       </c>
-      <c r="S730" t="n">
-        <v>5.0</v>
+      <c r="S730" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T730" t="e">
         <v>#N/A</v>
@@ -54653,7 +54653,7 @@
         <v>#N/A</v>
       </c>
       <c r="L732" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M732" t="e">
         <v>#N/A</v>
@@ -54724,7 +54724,7 @@
         <v>#N/A</v>
       </c>
       <c r="L733" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M733" t="e">
         <v>#N/A</v>
@@ -54795,7 +54795,7 @@
         <v>#N/A</v>
       </c>
       <c r="L734" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="M734" t="e">
         <v>#N/A</v>

--- a/Output/Habitat_Quality_Scores.xlsx
+++ b/Output/Habitat_Quality_Scores.xlsx
@@ -14710,10 +14710,10 @@
         <v>0.8</v>
       </c>
       <c r="V169" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W169" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="170">
@@ -29407,10 +29407,10 @@
         <v>0.8</v>
       </c>
       <c r="V376" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W376" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="377">
@@ -33667,10 +33667,10 @@
         <v>0.8</v>
       </c>
       <c r="V436" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W436" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="437">
@@ -46305,10 +46305,10 @@
         <v>0.8</v>
       </c>
       <c r="V614" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W614" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="615">
@@ -49855,10 +49855,10 @@
         <v>0.8</v>
       </c>
       <c r="V664" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W664" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="665">
@@ -50636,10 +50636,10 @@
         <v>0.8</v>
       </c>
       <c r="V675" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W675" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="676">
@@ -50707,10 +50707,10 @@
         <v>0.8</v>
       </c>
       <c r="V676" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W676" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="677">

--- a/Output/Habitat_Quality_Scores.xlsx
+++ b/Output/Habitat_Quality_Scores.xlsx
@@ -23903,8 +23903,8 @@
       <c r="I299" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J299" t="e">
-        <v>#N/A</v>
+      <c r="J299" t="n">
+        <v>3.0</v>
       </c>
       <c r="K299" t="e">
         <v>#N/A</v>
@@ -23918,8 +23918,8 @@
       <c r="N299" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O299" t="e">
-        <v>#N/A</v>
+      <c r="O299" t="n">
+        <v>3.0</v>
       </c>
       <c r="P299" t="e">
         <v>#N/A</v>
@@ -23974,8 +23974,8 @@
       <c r="I300" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J300" t="e">
-        <v>#N/A</v>
+      <c r="J300" t="n">
+        <v>3.0</v>
       </c>
       <c r="K300" t="e">
         <v>#N/A</v>
@@ -23989,8 +23989,8 @@
       <c r="N300" t="e">
         <v>#N/A</v>
       </c>
-      <c r="O300" t="e">
-        <v>#N/A</v>
+      <c r="O300" t="n">
+        <v>3.0</v>
       </c>
       <c r="P300" t="e">
         <v>#N/A</v>
@@ -50248,7 +50248,7 @@
         <v>5.0</v>
       </c>
       <c r="K670" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="L670" t="n">
         <v>5.0</v>
@@ -50275,16 +50275,16 @@
         <v>2.0</v>
       </c>
       <c r="T670" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="U670" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V670" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="W670" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="671">
@@ -54637,56 +54637,56 @@
       <c r="F732" t="s">
         <v>884</v>
       </c>
-      <c r="G732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K732" t="e">
-        <v>#N/A</v>
+      <c r="G732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J732" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K732" t="n">
+        <v>1.0</v>
       </c>
       <c r="L732" t="n">
         <v>1.0</v>
       </c>
-      <c r="M732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R732" t="e">
-        <v>#N/A</v>
+      <c r="M732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="N732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P732" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R732" t="n">
+        <v>2.0</v>
       </c>
       <c r="S732" t="n">
         <v>3.0</v>
       </c>
-      <c r="T732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V732" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W732" t="e">
-        <v>#N/A</v>
+      <c r="T732" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U732" t="n">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="V732" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W732" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="733">
@@ -54708,56 +54708,56 @@
       <c r="F733" t="s">
         <v>884</v>
       </c>
-      <c r="G733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K733" t="e">
-        <v>#N/A</v>
+      <c r="G733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K733" t="n">
+        <v>3.0</v>
       </c>
       <c r="L733" t="n">
         <v>1.0</v>
       </c>
-      <c r="M733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R733" t="e">
-        <v>#N/A</v>
+      <c r="M733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N733" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O733" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R733" t="n">
+        <v>4.0</v>
       </c>
       <c r="S733" t="n">
         <v>3.0</v>
       </c>
-      <c r="T733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V733" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W733" t="e">
-        <v>#N/A</v>
+      <c r="T733" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U733" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="V733" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W733" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="734">
@@ -54779,56 +54779,56 @@
       <c r="F734" t="s">
         <v>884</v>
       </c>
-      <c r="G734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K734" t="e">
-        <v>#N/A</v>
+      <c r="G734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K734" t="n">
+        <v>5.0</v>
       </c>
       <c r="L734" t="n">
         <v>1.0</v>
       </c>
-      <c r="M734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R734" t="e">
-        <v>#N/A</v>
+      <c r="M734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="N734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="O734" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R734" t="n">
+        <v>5.0</v>
       </c>
       <c r="S734" t="n">
         <v>3.0</v>
       </c>
-      <c r="T734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V734" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W734" t="e">
-        <v>#N/A</v>
+      <c r="T734" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="U734" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V734" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W734" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="735">
